--- a/BMC.xlsx
+++ b/BMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode\VSCodeProject\BMC\BMC-Visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20557CF5-6A19-4404-B0C9-C8F6245463A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9349FD21-4A6E-4DDE-9819-2493D72E3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="2616" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>Block</t>
   </si>
@@ -61,125 +61,131 @@
     <t>Health Check</t>
   </si>
   <si>
+    <t>Key Partnerships</t>
+  </si>
+  <si>
+    <t>Development team</t>
+  </si>
+  <si>
+    <t>Recommendation system</t>
+  </si>
+  <si>
+    <t>Database server</t>
+  </si>
+  <si>
+    <t>Amazon(for server and cloud storage)</t>
+  </si>
+  <si>
+    <t>Social Apps: Pinterest, X, TikTok, Instagram, Reddit, Facebook, SPC, YouTube</t>
+  </si>
+  <si>
+    <t>Retailers: Amazon, Temu, Shein, Walmart, T&amp;T, Costco</t>
+  </si>
+  <si>
+    <t>Brands: Zara, UNIQLO, H&amp;M, Lululemon, Alo, etc</t>
+  </si>
+  <si>
+    <t>Lawyers</t>
+  </si>
+  <si>
+    <t>Advanced AI models research and development</t>
+  </si>
+  <si>
+    <t>AI-generated outfit suggestions based on style databases</t>
+  </si>
+  <si>
+    <t>Outfit planning based on weather, occasion and tarot</t>
+  </si>
+  <si>
+    <t>Free usage of the platform to a certain extent</t>
+  </si>
+  <si>
+    <t>Performance improvement through data provided by clients</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>App (Android IOS)</t>
+  </si>
+  <si>
+    <t>Teenagers want to look cool</t>
+  </si>
+  <si>
+    <t>Auto-categorization of clothing</t>
+  </si>
+  <si>
+    <t>Dataset prepare</t>
+  </si>
+  <si>
+    <t>AI training</t>
+  </si>
+  <si>
+    <t>Regulator</t>
+  </si>
+  <si>
+    <t>Operation of website, Android app, IOS app</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Subscription plans</t>
+  </si>
+  <si>
+    <t>Ads for clothes brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third parties Integration </t>
+  </si>
+  <si>
+    <t>how user data is legally collected or protected</t>
+  </si>
+  <si>
+    <t>Early revenue streams like ads &amp; retailers links rely heavily on having traffic – could be weak at launch</t>
+  </si>
+  <si>
+    <t>Platform safety isn’t explained at all</t>
+  </si>
+  <si>
+    <t>Young professionals</t>
+  </si>
+  <si>
+    <t>Fashion Influencers</t>
+  </si>
+  <si>
+    <t>Users are willing to spend time customizing their style profiles to get better recommendations.</t>
+  </si>
+  <si>
+    <t>Users would feel more engaged if they receive gamified elements like style scores or badges.</t>
+  </si>
+  <si>
+    <t>Users are open to purchasing exclusive AI-curated clothing bundles directly within the app.</t>
+  </si>
+  <si>
+    <t>Fashion brands</t>
+  </si>
+  <si>
+    <t>Integration in shopping platforms</t>
+  </si>
+  <si>
+    <t>Online shopping platform</t>
+  </si>
+  <si>
+    <t>Community build</t>
+  </si>
+  <si>
+    <t>Clothes coupon</t>
+  </si>
+  <si>
     <t>Assumptions</t>
-  </si>
-  <si>
-    <t>Validate Assumptions</t>
-  </si>
-  <si>
-    <t>Providing sustainable, personalized outfit recommendations</t>
-  </si>
-  <si>
-    <t>App download; social media links; website</t>
-  </si>
-  <si>
-    <t>Teenagers</t>
-  </si>
-  <si>
-    <t>working women</t>
-  </si>
-  <si>
-    <t>thrifty users</t>
-  </si>
-  <si>
-    <t>Key Partnerships</t>
-  </si>
-  <si>
-    <t>community management</t>
-  </si>
-  <si>
-    <t>Continuous interaction through app customer service</t>
-  </si>
-  <si>
-    <t>referral rebates</t>
-  </si>
-  <si>
-    <t>Membership subscription fees</t>
-  </si>
-  <si>
-    <t>Algorithm recommendation development</t>
-  </si>
-  <si>
-    <t>KOL cooperation management</t>
-  </si>
-  <si>
-    <t>Development team</t>
-  </si>
-  <si>
-    <t>Recommendation system</t>
-  </si>
-  <si>
-    <t>Database server</t>
-  </si>
-  <si>
-    <t>Fast fashion brands</t>
-  </si>
-  <si>
-    <t>platform anchors</t>
-  </si>
-  <si>
-    <t>recycling platforms</t>
-  </si>
-  <si>
-    <t>Operating costs</t>
-  </si>
-  <si>
-    <t>technical development costs</t>
-  </si>
-  <si>
-    <t>promotion budget</t>
-  </si>
-  <si>
-    <t>Lack of TikTok channel</t>
-  </si>
-  <si>
-    <t>direct recommendation feature on other apps</t>
-  </si>
-  <si>
-    <t>increase short video content placement.</t>
-  </si>
-  <si>
-    <t>Lack of one-on-one service</t>
-  </si>
-  <si>
-    <t>direct connection between brands and customers</t>
-  </si>
-  <si>
-    <t>establishment of dedicated styling consultants</t>
-  </si>
-  <si>
-    <t>Users are willing to subscribe for 10 yuan per month</t>
-  </si>
-  <si>
-    <t>high risk</t>
-  </si>
-  <si>
-    <t>core source of income.</t>
-  </si>
-  <si>
-    <t>Users value environmental protection and personalization</t>
-  </si>
-  <si>
-    <t>preliminary research results</t>
-  </si>
-  <si>
-    <t>questionnaire survey + pre-purchase test</t>
-  </si>
-  <si>
-    <t>80% of users indicate willingness to try</t>
-  </si>
-  <si>
-    <t>user interviews + usage log analysis</t>
-  </si>
-  <si>
-    <t>average rating &gt; 4.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +203,24 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -237,12 +261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,19 +578,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="105.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="2" max="2" width="74.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,86 +601,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -660,304 +689,393 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
+      <c r="C44" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>